--- a/data/trans_dic/P43-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43-Edad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04028054902699568</v>
+        <v>0.03949524826916447</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04241349372989896</v>
+        <v>0.0440041854439608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03581059873733255</v>
+        <v>0.03544988582192594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.038822397076292</v>
+        <v>0.03642504199873658</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08421883164937524</v>
+        <v>0.0806522736915439</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09419171389115888</v>
+        <v>0.09157916796297974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08111304730285257</v>
+        <v>0.0818478692554731</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1277161079540762</v>
+        <v>0.1149710121758913</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1047677798183309</v>
+        <v>0.1035236198211264</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1058098867636268</v>
+        <v>0.1053657482768039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1051364442870644</v>
+        <v>0.1078710315703214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1101721184190963</v>
+        <v>0.1082027584177362</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1596346074368559</v>
+        <v>0.1573167256227049</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.161957789390086</v>
+        <v>0.1607914106858286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1631728781956325</v>
+        <v>0.1658597925867647</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1823627492803273</v>
+        <v>0.1862161828826846</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3031743893331401</v>
+        <v>0.3034320063937606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2942651176201103</v>
+        <v>0.2988414556596818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3085166160962018</v>
+        <v>0.306049012391095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2974156993084743</v>
+        <v>0.2941118172155598</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3753539774691516</v>
+        <v>0.3782223675230455</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3696512357549506</v>
+        <v>0.3762532484079725</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3818911116300338</v>
+        <v>0.3837988424125818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3741195427123974</v>
+        <v>0.3723320293364793</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.573586537276349</v>
+        <v>0.5777366380142928</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6269287889421701</v>
+        <v>0.6302977380317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6204039991538534</v>
+        <v>0.6192473791015719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5841077414540219</v>
+        <v>0.5826309923811144</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6610134266233172</v>
+        <v>0.6618102220204128</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7066120699024027</v>
+        <v>0.7105431965699203</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6972413090772707</v>
+        <v>0.7018962661067515</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6518535228040331</v>
+        <v>0.6484537822033986</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7104410731378608</v>
+        <v>0.7155732758917385</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8829621597629208</v>
+        <v>0.8816111724419613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8723649334916126</v>
+        <v>0.8719094872257634</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7689872084164011</v>
+        <v>0.7664859217039229</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7979333536554302</v>
+        <v>0.7975651333592754</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9411498940260942</v>
+        <v>0.9394087447308721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9289985540026556</v>
+        <v>0.9281472261681178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8254070567270345</v>
+        <v>0.8259279977563033</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5829531670718391</v>
+        <v>0.5856698305945454</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8106911363713381</v>
+        <v>0.8060790294111977</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.82230453003882</v>
+        <v>0.8212442771925287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8204118411181288</v>
+        <v>0.8187395979374444</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6822481859722066</v>
+        <v>0.684893364053642</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8903815099564898</v>
+        <v>0.888424431172998</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8928544045443059</v>
+        <v>0.8928608729637371</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8774387503886943</v>
+        <v>0.8772103940375041</v>
       </c>
     </row>
     <row r="22">
@@ -985,7 +985,7 @@
         <v>0.5997584424533736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7021777511494299</v>
+        <v>0.70217775114943</v>
       </c>
     </row>
     <row r="23">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2389521699286341</v>
+        <v>0.2390847676887819</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4839082615182407</v>
+        <v>0.4838156276668134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.540080184696264</v>
+        <v>0.5429179154995483</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6673800765800689</v>
+        <v>0.6659793966180941</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3457094623608276</v>
+        <v>0.3457277185343695</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5927288670155184</v>
+        <v>0.5900595157701078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6538638577323019</v>
+        <v>0.6570484497883655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.736030628813211</v>
+        <v>0.7353372935874077</v>
       </c>
     </row>
     <row r="25">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4537584439578993</v>
+        <v>0.454294398288339</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4810924288000681</v>
+        <v>0.4822212055378957</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5065125460456329</v>
+        <v>0.507123797453027</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4884791313500955</v>
+        <v>0.4893877316869233</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5168945766816806</v>
+        <v>0.5162482111536849</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5404197333075912</v>
+        <v>0.5399890264721099</v>
       </c>
     </row>
     <row r="28">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18721</v>
+        <v>18356</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18165</v>
+        <v>18846</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13883</v>
+        <v>13743</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11736</v>
+        <v>11011</v>
       </c>
     </row>
     <row r="7">
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39142</v>
+        <v>37484</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40340</v>
+        <v>39221</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31445</v>
+        <v>31730</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38609</v>
+        <v>34756</v>
       </c>
     </row>
     <row r="8">
@@ -1325,16 +1325,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>65429</v>
+        <v>64652</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>64099</v>
+        <v>63830</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>59041</v>
+        <v>60576</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40678</v>
+        <v>39951</v>
       </c>
     </row>
     <row r="11">
@@ -1345,16 +1345,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>99694</v>
+        <v>98246</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>98114</v>
+        <v>97407</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>91632</v>
+        <v>93141</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>67332</v>
+        <v>68755</v>
       </c>
     </row>
     <row r="12">
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>208816</v>
+        <v>208993</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>208000</v>
+        <v>211235</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>202993</v>
+        <v>201370</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>126174</v>
+        <v>124772</v>
       </c>
     </row>
     <row r="15">
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>258530</v>
+        <v>260506</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>261286</v>
+        <v>265953</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>251271</v>
+        <v>252527</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>158714</v>
+        <v>157956</v>
       </c>
     </row>
     <row r="16">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>294213</v>
+        <v>296341</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>385657</v>
+        <v>387730</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>401453</v>
+        <v>400704</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>299268</v>
+        <v>298512</v>
       </c>
     </row>
     <row r="19">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>339057</v>
+        <v>339466</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>434675</v>
+        <v>437093</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>451173</v>
+        <v>454185</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>333978</v>
+        <v>332236</v>
       </c>
     </row>
     <row r="20">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>284966</v>
+        <v>287024</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>393642</v>
+        <v>393040</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>431484</v>
+        <v>431259</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>343543</v>
+        <v>342425</v>
       </c>
     </row>
     <row r="23">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>320060</v>
+        <v>319912</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>419583</v>
+        <v>418807</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>459496</v>
+        <v>459075</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>368748</v>
+        <v>368981</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>197731</v>
+        <v>198652</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>284599</v>
+        <v>282980</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>308929</v>
+        <v>308531</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>285987</v>
+        <v>285404</v>
       </c>
     </row>
     <row r="27">
@@ -1681,16 +1681,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>231410</v>
+        <v>232308</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>312575</v>
+        <v>311888</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>335434</v>
+        <v>335436</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>305866</v>
+        <v>305787</v>
       </c>
     </row>
     <row r="28">
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>78429</v>
+        <v>78472</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>185631</v>
+        <v>185596</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>213392</v>
+        <v>214513</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>266580</v>
+        <v>266020</v>
       </c>
     </row>
     <row r="31">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>113469</v>
+        <v>113475</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>227376</v>
+        <v>226352</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>258349</v>
+        <v>259608</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>294002</v>
+        <v>293725</v>
       </c>
     </row>
     <row r="32">
@@ -1829,16 +1829,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1604743</v>
+        <v>1606638</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1693296</v>
+        <v>1697269</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1419697</v>
+        <v>1421410</v>
       </c>
     </row>
     <row r="35">
@@ -1849,16 +1849,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1727535</v>
+        <v>1730748</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1819309</v>
+        <v>1817034</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1514735</v>
+        <v>1513528</v>
       </c>
     </row>
     <row r="36">
